--- a/input/open_data_datasets_for_fair_assessment.xlsx
+++ b/input/open_data_datasets_for_fair_assessment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/jan_taubitz_charite_de/Documents/_BIH/BUA-Dashboards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/jan_taubitz_charite_de/Documents/_BIH/BUA-Dashboards/fair-assessment/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1996" documentId="13_ncr:1_{A6363B66-EF64-4594-85DE-7C8E21BC35D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1A6A326-10CF-4140-A8CB-217602EFD6C9}"/>
+  <xr:revisionPtr revIDLastSave="1997" documentId="13_ncr:1_{A6363B66-EF64-4594-85DE-7C8E21BC35D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55FB95CC-2A1F-504D-8346-DAC62B0A005D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6F78DAF4-323A-46F9-9E6A-62895BA4FFC0}"/>
   </bookViews>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="1322">
   <si>
     <t>article</t>
   </si>
@@ -3345,9 +3345,6 @@
   </si>
   <si>
     <t>https://doi.gin.g-node.org/10.12751/g-node.mb83iq/</t>
-  </si>
-  <si>
-    <t>G-Node</t>
   </si>
   <si>
     <t>voltage (v)  impulse width (?s)  frequency (hz)  impedance (o)  polarity  left  right  left  right  left  right  left  right  left  right  1  3.4  2.9  90  60  90  90  818  1145  bi  mo  2  2.6  3.8  90  60  90  90  1035  1010  bi  mo  3  2.2  3  60  90  90  90  604  594  mo  mo  4  3.9  2.4  90  90  160  160  812  962  mo  mo  5  3.7  3.8  60  60  130  130  500  956  mo  mo  6  3.8  3.8  60  60  90  90  500  459  mo  mo  7  2.9  2.9  60  60  130  130  766  766  mo  mo  8  3.5  4.4  60  60  80  80  459  283  mo  mo  9  1.7  1.3  60  60  130  130  577  441  mo  mo  10  2.7  2.7  60  60  130  130  712  712  mo  mo  11  3.5  2.1  60  60  130  130  848  523  bi  mo  12  2.2  1  60  60  130  130  1083  2365  mo  mo  13  2.1  2  60  60  130  130  550  523  mo  mo  14  0.5  0.5  60  60  130  130  2457  2084  mo  mo  the table provides an overview of the participants included in the language analysis (n = 14) regarding demographic disease and dbs related data; bi: bipolar; dur.: duration; f: female; h&amp;y: hoehn &amp; yahr stage (dbs on); m: male; mo: monopolar; pt.: participant code https://doi.org/10.1371/journal.pone.0244148.t001  has been described in detail in earlier studies [65 66] and shall briefly be outlined: postoperative images (ct or mri) were co-registered to the preoperative mri using either advanced normalization tools (ants; http://stnava.github.io/ants/ [67]) for postoperative ct scans or the statistical parametric mapping (spm12) toolbox (http://www.fil.ion.ucl.ac.uk/spm/ software/spm12/) for postoperative mri scans.    data availability statement: our data are stored in the public repository g-node gin (doi</t>
@@ -4634,9 +4631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD384953-75DF-4A78-8473-0418C49F9711}">
   <dimension ref="A1:K358"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4765,7 +4762,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
@@ -5457,7 +5454,7 @@
         <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -5550,7 +5547,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
@@ -5646,7 +5643,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>24</v>
@@ -6535,7 +6532,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>16</v>
@@ -6712,7 +6709,7 @@
         <v>14</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>16</v>
@@ -7285,7 +7282,7 @@
         <v>28</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>16</v>
@@ -7347,7 +7344,7 @@
         <v>14</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>16</v>
@@ -7649,7 +7646,7 @@
         <v>14</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>39</v>
@@ -7739,7 +7736,7 @@
         <v>14</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>16</v>
@@ -9550,7 +9547,7 @@
         <v>28</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>16</v>
@@ -9991,7 +9988,7 @@
         <v>14</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>16</v>
@@ -10145,7 +10142,7 @@
         <v>14</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>16</v>
@@ -10563,7 +10560,7 @@
         <v>14</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>16</v>
@@ -11888,7 +11885,7 @@
         <v>14</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>16</v>
@@ -12239,7 +12236,7 @@
         <v>14</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>16</v>
@@ -13536,7 +13533,7 @@
         <v>28</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>16</v>
@@ -14192,27 +14189,27 @@
         <v>14</v>
       </c>
       <c r="E318" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G318" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I318" s="7" t="s">
         <v>1046</v>
       </c>
-      <c r="F318" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G318" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I318" s="7" t="s">
+      <c r="J318" t="s">
         <v>1047</v>
-      </c>
-      <c r="J318" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B319" s="7" t="s">
         <v>1049</v>
-      </c>
-      <c r="B319" s="7" t="s">
-        <v>1050</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>13</v>
@@ -14230,7 +14227,7 @@
         <v>17</v>
       </c>
       <c r="I319" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="J319" s="15" t="s">
         <v>16</v>
@@ -14238,10 +14235,10 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B320" s="10" t="s">
         <v>1052</v>
-      </c>
-      <c r="B320" s="10" t="s">
-        <v>1053</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>13</v>
@@ -14259,18 +14256,18 @@
         <v>17</v>
       </c>
       <c r="I320" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J320" s="13" t="s">
         <v>1054</v>
-      </c>
-      <c r="J320" s="13" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B321" s="7" t="s">
         <v>1056</v>
-      </c>
-      <c r="B321" s="7" t="s">
-        <v>1057</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>13</v>
@@ -14288,7 +14285,7 @@
         <v>17</v>
       </c>
       <c r="I321" s="7" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="J321" s="15" t="s">
         <v>16</v>
@@ -14296,10 +14293,10 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B322" s="7" t="s">
         <v>1059</v>
-      </c>
-      <c r="B322" s="7" t="s">
-        <v>1060</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>13</v>
@@ -14317,7 +14314,7 @@
         <v>17</v>
       </c>
       <c r="I322" s="7" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="J322" s="15" t="s">
         <v>16</v>
@@ -14325,10 +14322,10 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B323" s="7" t="s">
         <v>1062</v>
-      </c>
-      <c r="B323" s="7" t="s">
-        <v>1063</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>13</v>
@@ -14346,7 +14343,7 @@
         <v>17</v>
       </c>
       <c r="I323" s="7" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="J323" s="15" t="s">
         <v>16</v>
@@ -14354,39 +14351,39 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B324" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="B324" s="10" t="s">
+      <c r="C324" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E324" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="C324" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E324" s="2" t="s">
+      <c r="F324" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G324" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I324" s="7" t="s">
         <v>1067</v>
       </c>
-      <c r="F324" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G324" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I324" s="7" t="s">
+      <c r="J324" s="13" t="s">
         <v>1068</v>
-      </c>
-      <c r="J324" s="13" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B325" s="10" t="s">
         <v>1070</v>
-      </c>
-      <c r="B325" s="10" t="s">
-        <v>1071</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>355</v>
@@ -14395,7 +14392,7 @@
         <v>14</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>16</v>
@@ -14407,7 +14404,7 @@
         <v>18</v>
       </c>
       <c r="I325" s="7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J325" s="15" t="s">
         <v>16</v>
@@ -14415,10 +14412,10 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B326" s="7" t="s">
         <v>1073</v>
-      </c>
-      <c r="B326" s="7" t="s">
-        <v>1074</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>355</v>
@@ -14427,7 +14424,7 @@
         <v>14</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>16</v>
@@ -14439,7 +14436,7 @@
         <v>18</v>
       </c>
       <c r="I326" s="7" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J326" s="15" t="s">
         <v>16</v>
@@ -14447,11 +14444,11 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B327" s="10" t="s">
         <v>1076</v>
       </c>
-      <c r="B327" s="10" t="s">
-        <v>1077</v>
-      </c>
       <c r="C327" s="7" t="s">
         <v>13</v>
       </c>
@@ -14459,7 +14456,7 @@
         <v>14</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>16</v>
@@ -14471,7 +14468,7 @@
         <v>18</v>
       </c>
       <c r="I327" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="J327" s="15" t="s">
         <v>16</v>
@@ -14479,10 +14476,10 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B328" s="10" t="s">
         <v>1079</v>
-      </c>
-      <c r="B328" s="10" t="s">
-        <v>1080</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>13</v>
@@ -14500,10 +14497,10 @@
         <v>17</v>
       </c>
       <c r="H328" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I328" s="7" t="s">
         <v>1081</v>
-      </c>
-      <c r="I328" s="7" t="s">
-        <v>1082</v>
       </c>
       <c r="J328" s="15" t="s">
         <v>16</v>
@@ -14511,19 +14508,19 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B329" s="7" t="s">
         <v>1083</v>
       </c>
-      <c r="B329" s="7" t="s">
+      <c r="C329" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E329" s="2" t="s">
         <v>1084</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E329" s="2" t="s">
-        <v>1085</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>16</v>
@@ -14535,18 +14532,18 @@
         <v>18</v>
       </c>
       <c r="I329" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J329" s="10" t="s">
         <v>1086</v>
-      </c>
-      <c r="J329" s="10" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B330" s="7" t="s">
         <v>1088</v>
-      </c>
-      <c r="B330" s="7" t="s">
-        <v>1089</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>13</v>
@@ -14564,7 +14561,7 @@
         <v>17</v>
       </c>
       <c r="I330" s="7" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="J330" s="15" t="s">
         <v>16</v>
@@ -14572,10 +14569,10 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B331" s="10" t="s">
         <v>1091</v>
-      </c>
-      <c r="B331" s="10" t="s">
-        <v>1092</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>13</v>
@@ -14593,18 +14590,18 @@
         <v>17</v>
       </c>
       <c r="I331" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J331" s="5" t="s">
         <v>1093</v>
-      </c>
-      <c r="J331" s="5" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B332" s="7" t="s">
         <v>1095</v>
-      </c>
-      <c r="B332" s="7" t="s">
-        <v>1096</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>13</v>
@@ -14622,7 +14619,7 @@
         <v>17</v>
       </c>
       <c r="I332" s="7" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J332" s="15" t="s">
         <v>16</v>
@@ -14630,10 +14627,10 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B333" s="7" t="s">
         <v>1098</v>
-      </c>
-      <c r="B333" s="7" t="s">
-        <v>1099</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>13</v>
@@ -14651,7 +14648,7 @@
         <v>17</v>
       </c>
       <c r="I333" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="J333" s="15" t="s">
         <v>16</v>
@@ -14659,10 +14656,10 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B334" s="7" t="s">
         <v>1101</v>
-      </c>
-      <c r="B334" s="7" t="s">
-        <v>1102</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>13</v>
@@ -14680,7 +14677,7 @@
         <v>17</v>
       </c>
       <c r="I334" s="7" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="J334" s="15" t="s">
         <v>16</v>
@@ -14688,10 +14685,10 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B335" s="7" t="s">
         <v>1104</v>
-      </c>
-      <c r="B335" s="7" t="s">
-        <v>1105</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>13</v>
@@ -14709,7 +14706,7 @@
         <v>17</v>
       </c>
       <c r="I335" s="7" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="J335" s="15" t="s">
         <v>16</v>
@@ -14717,10 +14714,10 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B336" s="7" t="s">
         <v>1107</v>
-      </c>
-      <c r="B336" s="7" t="s">
-        <v>1108</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>13</v>
@@ -14738,7 +14735,7 @@
         <v>17</v>
       </c>
       <c r="I336" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J336" s="15" t="s">
         <v>16</v>
@@ -14746,10 +14743,10 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B337" s="10" t="s">
         <v>1110</v>
-      </c>
-      <c r="B337" s="10" t="s">
-        <v>1111</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>355</v>
@@ -14767,18 +14764,18 @@
         <v>181</v>
       </c>
       <c r="I337" s="7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J337" s="13" t="s">
         <v>1112</v>
-      </c>
-      <c r="J337" s="13" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B338" s="7" t="s">
         <v>1114</v>
-      </c>
-      <c r="B338" s="7" t="s">
-        <v>1115</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>13</v>
@@ -14796,7 +14793,7 @@
         <v>17</v>
       </c>
       <c r="I338" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="J338" s="15" t="s">
         <v>16</v>
@@ -14804,10 +14801,10 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>561</v>
@@ -14825,7 +14822,7 @@
         <v>16</v>
       </c>
       <c r="I339" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="J339" s="15" t="s">
         <v>16</v>
@@ -14833,10 +14830,10 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B340" s="7" t="s">
         <v>1118</v>
-      </c>
-      <c r="B340" s="7" t="s">
-        <v>1119</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>13</v>
@@ -14854,7 +14851,7 @@
         <v>17</v>
       </c>
       <c r="I340" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="J340" s="15" t="s">
         <v>16</v>
@@ -14862,10 +14859,10 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B341" s="7" t="s">
         <v>1121</v>
-      </c>
-      <c r="B341" s="7" t="s">
-        <v>1122</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>13</v>
@@ -14883,18 +14880,18 @@
         <v>17</v>
       </c>
       <c r="I341" s="7" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="J341" s="13" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="7" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>13</v>
@@ -14912,7 +14909,7 @@
         <v>17</v>
       </c>
       <c r="I342" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="J342" s="15" t="s">
         <v>16</v>
@@ -14920,10 +14917,10 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B343" s="7" t="s">
         <v>1126</v>
-      </c>
-      <c r="B343" s="7" t="s">
-        <v>1127</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>13</v>
@@ -14941,7 +14938,7 @@
         <v>17</v>
       </c>
       <c r="I343" s="7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="J343" s="15" t="s">
         <v>16</v>
@@ -14949,10 +14946,10 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="7" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>13</v>
@@ -14970,7 +14967,7 @@
         <v>181</v>
       </c>
       <c r="I344" s="7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="J344" s="15" t="s">
         <v>16</v>
@@ -14978,10 +14975,10 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="21" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B345" s="7" t="s">
         <v>1130</v>
-      </c>
-      <c r="B345" s="7" t="s">
-        <v>1131</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>13</v>
@@ -14999,7 +14996,7 @@
         <v>17</v>
       </c>
       <c r="I345" s="7" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="J345" s="15" t="s">
         <v>16</v>
@@ -15007,10 +15004,10 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="21" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B346" s="7" t="s">
         <v>1133</v>
-      </c>
-      <c r="B346" s="7" t="s">
-        <v>1134</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>13</v>
@@ -15031,7 +15028,7 @@
         <v>152</v>
       </c>
       <c r="I346" s="7" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="J346" s="15" t="s">
         <v>16</v>
@@ -15039,10 +15036,10 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="21" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B347" s="10" t="s">
         <v>1136</v>
-      </c>
-      <c r="B347" s="10" t="s">
-        <v>1137</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>13</v>
@@ -15060,18 +15057,18 @@
         <v>17</v>
       </c>
       <c r="I347" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J347" s="13" t="s">
         <v>1138</v>
-      </c>
-      <c r="J347" s="13" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="21" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B348" s="7" t="s">
         <v>1140</v>
-      </c>
-      <c r="B348" s="7" t="s">
-        <v>1141</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>13</v>
@@ -15089,7 +15086,7 @@
         <v>17</v>
       </c>
       <c r="I348" s="7" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J348" s="15" t="s">
         <v>16</v>
@@ -15097,10 +15094,10 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B349" s="10" t="s">
         <v>1143</v>
-      </c>
-      <c r="B349" s="10" t="s">
-        <v>1144</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>13</v>
@@ -15126,10 +15123,10 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="21" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B350" s="10" t="s">
         <v>1145</v>
-      </c>
-      <c r="B350" s="10" t="s">
-        <v>1146</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>13</v>
@@ -15147,7 +15144,7 @@
         <v>17</v>
       </c>
       <c r="I350" s="7" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J350" s="15" t="s">
         <v>16</v>
@@ -15155,11 +15152,11 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="21" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B351" s="10" t="s">
         <v>1148</v>
       </c>
-      <c r="B351" s="10" t="s">
-        <v>1149</v>
-      </c>
       <c r="C351" s="7" t="s">
         <v>13</v>
       </c>
@@ -15167,7 +15164,7 @@
         <v>14</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>16</v>
@@ -15179,7 +15176,7 @@
         <v>18</v>
       </c>
       <c r="I351" s="7" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J351" s="15" t="s">
         <v>16</v>
@@ -15187,10 +15184,10 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="21" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B352" s="10" t="s">
         <v>1151</v>
-      </c>
-      <c r="B352" s="10" t="s">
-        <v>1152</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>13</v>
@@ -15208,18 +15205,18 @@
         <v>17</v>
       </c>
       <c r="I352" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J352" s="13" t="s">
         <v>1153</v>
-      </c>
-      <c r="J352" s="13" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="21" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B353" s="7" t="s">
         <v>1155</v>
-      </c>
-      <c r="B353" s="7" t="s">
-        <v>1156</v>
       </c>
       <c r="C353" s="7" t="s">
         <v>13</v>
@@ -15237,7 +15234,7 @@
         <v>17</v>
       </c>
       <c r="I353" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J353" s="15" t="s">
         <v>16</v>
@@ -15245,10 +15242,10 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="21" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B354" s="7" t="s">
         <v>1158</v>
-      </c>
-      <c r="B354" s="7" t="s">
-        <v>1159</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>13</v>
@@ -15266,7 +15263,7 @@
         <v>17</v>
       </c>
       <c r="I354" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J354" s="15" t="s">
         <v>16</v>
@@ -15274,10 +15271,10 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="21" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B355" s="10" t="s">
         <v>1161</v>
-      </c>
-      <c r="B355" s="10" t="s">
-        <v>1162</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>355</v>
@@ -15286,7 +15283,7 @@
         <v>14</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>16</v>
@@ -15295,10 +15292,10 @@
         <v>181</v>
       </c>
       <c r="H355" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I355" s="7" t="s">
         <v>1164</v>
-      </c>
-      <c r="I355" s="7" t="s">
-        <v>1165</v>
       </c>
       <c r="J355" s="15" t="s">
         <v>16</v>
@@ -15306,10 +15303,10 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="21" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B356" s="10" t="s">
         <v>1166</v>
-      </c>
-      <c r="B356" s="10" t="s">
-        <v>1167</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>355</v>
@@ -15327,7 +15324,7 @@
         <v>181</v>
       </c>
       <c r="I356" s="7" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="J356" s="15" t="s">
         <v>16</v>
@@ -15335,10 +15332,10 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="21" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B357" s="7" t="s">
         <v>1169</v>
-      </c>
-      <c r="B357" s="7" t="s">
-        <v>1170</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>355</v>
@@ -15347,7 +15344,7 @@
         <v>14</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>16</v>
@@ -15356,10 +15353,10 @@
         <v>181</v>
       </c>
       <c r="H357" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I357" s="7" t="s">
         <v>1172</v>
-      </c>
-      <c r="I357" s="7" t="s">
-        <v>1173</v>
       </c>
       <c r="J357" s="15" t="s">
         <v>16</v>
@@ -15367,10 +15364,10 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="21" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>16</v>
@@ -15388,13 +15385,13 @@
         <v>181</v>
       </c>
       <c r="H358" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I358" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J358" s="13" t="s">
         <v>1175</v>
-      </c>
-      <c r="I358" s="7" t="s">
-        <v>1173</v>
-      </c>
-      <c r="J358" s="13" t="s">
-        <v>1176</v>
       </c>
     </row>
   </sheetData>
@@ -15662,13 +15659,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1177</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1178</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -15681,7 +15678,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B3" t="s">
         <v>195</v>
@@ -15692,7 +15689,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -15703,18 +15700,18 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -15722,12 +15719,12 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -15738,12 +15735,12 @@
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -15765,7 +15762,7 @@
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>181</v>
@@ -15791,677 +15788,677 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
   </sheetData>

--- a/input/open_data_datasets_for_fair_assessment.xlsx
+++ b/input/open_data_datasets_for_fair_assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/jan_taubitz_charite_de/Documents/_BIH/BUA-Dashboards/fair-assessment/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1997" documentId="13_ncr:1_{A6363B66-EF64-4594-85DE-7C8E21BC35D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55FB95CC-2A1F-504D-8346-DAC62B0A005D}"/>
+  <xr:revisionPtr revIDLastSave="2000" documentId="13_ncr:1_{A6363B66-EF64-4594-85DE-7C8E21BC35D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B0FCA51-54E1-8A43-A7A2-845C021474DA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6F78DAF4-323A-46F9-9E6A-62895BA4FFC0}"/>
   </bookViews>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="1322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="1322">
   <si>
     <t>article</t>
   </si>
@@ -2678,9 +2678,6 @@
     <t>the 26-å density map of the cryo-et density was deposited in the electron microscopy data bank (accession no. emd-11678) and the fitted model is in the pdb (id code 7a7d).      data availability. the 26-å density map of the cryo-et density was deposited in the electron microscopy data bank (accession no. emd-11678</t>
   </si>
   <si>
-    <t>http://doi.org/doi:10.1073/pnas.2004563117</t>
-  </si>
-  <si>
     <t>10.1073/pnas.2008883117</t>
   </si>
   <si>
@@ -4174,6 +4171,9 @@
   </si>
   <si>
     <t>MassIVE</t>
+  </si>
+  <si>
+    <t>Here the doi http://doi.org/doi:10.1073/pnas.2004563117 was entered as best_identifier, which is not correct, because it is the article doi</t>
   </si>
 </sst>
 </file>
@@ -4269,7 +4269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4314,6 +4314,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -4631,9 +4632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD384953-75DF-4A78-8473-0418C49F9711}">
   <dimension ref="A1:K358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J236" sqref="J236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4762,7 +4763,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
@@ -5454,7 +5455,7 @@
         <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -5547,7 +5548,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
@@ -5643,7 +5644,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>24</v>
@@ -6532,7 +6533,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>16</v>
@@ -6709,7 +6710,7 @@
         <v>14</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>16</v>
@@ -7282,7 +7283,7 @@
         <v>28</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>16</v>
@@ -7344,7 +7345,7 @@
         <v>14</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>16</v>
@@ -7646,7 +7647,7 @@
         <v>14</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>39</v>
@@ -7736,7 +7737,7 @@
         <v>14</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>16</v>
@@ -9547,7 +9548,7 @@
         <v>28</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>16</v>
@@ -9988,7 +9989,7 @@
         <v>14</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>16</v>
@@ -10142,7 +10143,7 @@
         <v>14</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>16</v>
@@ -10560,7 +10561,7 @@
         <v>14</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>16</v>
@@ -11885,7 +11886,7 @@
         <v>14</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>16</v>
@@ -11903,7 +11904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>795</v>
       </c>
@@ -11932,7 +11933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
         <v>798</v>
       </c>
@@ -11961,7 +11962,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
         <v>802</v>
       </c>
@@ -11990,7 +11991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
         <v>805</v>
       </c>
@@ -12019,7 +12020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>808</v>
       </c>
@@ -12048,7 +12049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>811</v>
       </c>
@@ -12077,7 +12078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>814</v>
       </c>
@@ -12106,7 +12107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>817</v>
       </c>
@@ -12135,7 +12136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>820</v>
       </c>
@@ -12160,16 +12161,19 @@
       <c r="I249" s="7" t="s">
         <v>822</v>
       </c>
-      <c r="J249" s="13" t="s">
+      <c r="J249" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K249" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A250" s="7" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A250" s="7" t="s">
+      <c r="B250" s="7" t="s">
         <v>824</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>825</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>13</v>
@@ -12187,18 +12191,18 @@
         <v>17</v>
       </c>
       <c r="I250" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="J250" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A251" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="J250" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A251" s="7" t="s">
+      <c r="B251" s="7" t="s">
         <v>827</v>
-      </c>
-      <c r="B251" s="7" t="s">
-        <v>828</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>13</v>
@@ -12216,19 +12220,19 @@
         <v>17</v>
       </c>
       <c r="I251" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="J251" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A252" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="J251" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A252" s="7" t="s">
+      <c r="B252" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="B252" s="7" t="s">
-        <v>831</v>
-      </c>
       <c r="C252" s="7" t="s">
         <v>13</v>
       </c>
@@ -12236,7 +12240,7 @@
         <v>14</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>16</v>
@@ -12248,18 +12252,18 @@
         <v>18</v>
       </c>
       <c r="I252" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="J252" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="J252" s="13" t="s">
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A253" s="7" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A253" s="7" t="s">
+      <c r="B253" s="10" t="s">
         <v>834</v>
-      </c>
-      <c r="B253" s="10" t="s">
-        <v>835</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>13</v>
@@ -12277,18 +12281,18 @@
         <v>17</v>
       </c>
       <c r="I253" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="J253" s="13" t="s">
         <v>836</v>
       </c>
-      <c r="J253" s="13" t="s">
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A254" s="7" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A254" s="7" t="s">
+      <c r="B254" s="7" t="s">
         <v>838</v>
-      </c>
-      <c r="B254" s="7" t="s">
-        <v>839</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>13</v>
@@ -12306,18 +12310,18 @@
         <v>17</v>
       </c>
       <c r="I254" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="J254" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A255" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="J254" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A255" s="7" t="s">
+      <c r="B255" s="7" t="s">
         <v>841</v>
-      </c>
-      <c r="B255" s="7" t="s">
-        <v>842</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>13</v>
@@ -12335,18 +12339,18 @@
         <v>17</v>
       </c>
       <c r="I255" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="J255" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A256" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="J255" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A256" s="7" t="s">
+      <c r="B256" s="7" t="s">
         <v>844</v>
-      </c>
-      <c r="B256" s="7" t="s">
-        <v>845</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>13</v>
@@ -12364,7 +12368,7 @@
         <v>17</v>
       </c>
       <c r="I256" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J256" s="15" t="s">
         <v>16</v>
@@ -12372,10 +12376,10 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="B257" s="7" t="s">
         <v>847</v>
-      </c>
-      <c r="B257" s="7" t="s">
-        <v>848</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>13</v>
@@ -12393,27 +12397,27 @@
         <v>17</v>
       </c>
       <c r="I257" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="J257" s="13" t="s">
         <v>849</v>
-      </c>
-      <c r="J257" s="13" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="B258" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="B258" s="10" t="s">
+      <c r="C258" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E258" s="2" t="s">
         <v>852</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>853</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>16</v>
@@ -12425,7 +12429,7 @@
         <v>18</v>
       </c>
       <c r="I258" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J258" s="15" t="s">
         <v>16</v>
@@ -12433,10 +12437,10 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>13</v>
@@ -12457,18 +12461,18 @@
         <v>18</v>
       </c>
       <c r="I259" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J259" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="B260" s="10" t="s">
         <v>857</v>
-      </c>
-      <c r="B260" s="10" t="s">
-        <v>858</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>355</v>
@@ -12477,7 +12481,7 @@
         <v>14</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>16</v>
@@ -12489,7 +12493,7 @@
         <v>18</v>
       </c>
       <c r="I260" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J260" s="15" t="s">
         <v>16</v>
@@ -12497,10 +12501,10 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="B261" s="10" t="s">
         <v>861</v>
-      </c>
-      <c r="B261" s="10" t="s">
-        <v>862</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>13</v>
@@ -12518,18 +12522,18 @@
         <v>17</v>
       </c>
       <c r="I261" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="J261" s="13" t="s">
         <v>863</v>
-      </c>
-      <c r="J261" s="13" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="B262" s="7" t="s">
         <v>865</v>
-      </c>
-      <c r="B262" s="7" t="s">
-        <v>866</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>13</v>
@@ -12547,7 +12551,7 @@
         <v>17</v>
       </c>
       <c r="I262" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J262" s="15" t="s">
         <v>16</v>
@@ -12555,10 +12559,10 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="B263" s="7" t="s">
         <v>868</v>
-      </c>
-      <c r="B263" s="7" t="s">
-        <v>869</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>13</v>
@@ -12576,7 +12580,7 @@
         <v>17</v>
       </c>
       <c r="I263" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J263" s="15" t="s">
         <v>16</v>
@@ -12584,10 +12588,10 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="B264" s="7" t="s">
         <v>871</v>
-      </c>
-      <c r="B264" s="7" t="s">
-        <v>872</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>355</v>
@@ -12605,18 +12609,18 @@
         <v>181</v>
       </c>
       <c r="I264" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="J264" s="13" t="s">
         <v>873</v>
-      </c>
-      <c r="J264" s="13" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="B265" s="10" t="s">
         <v>875</v>
-      </c>
-      <c r="B265" s="10" t="s">
-        <v>876</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>13</v>
@@ -12634,7 +12638,7 @@
         <v>17</v>
       </c>
       <c r="I265" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J265" s="15" t="s">
         <v>16</v>
@@ -12642,10 +12646,10 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="B266" s="10" t="s">
         <v>878</v>
-      </c>
-      <c r="B266" s="10" t="s">
-        <v>879</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>13</v>
@@ -12663,7 +12667,7 @@
         <v>17</v>
       </c>
       <c r="I266" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J266" s="15" t="s">
         <v>16</v>
@@ -12671,10 +12675,10 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="B267" s="10" t="s">
         <v>881</v>
-      </c>
-      <c r="B267" s="10" t="s">
-        <v>882</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>13</v>
@@ -12692,7 +12696,7 @@
         <v>17</v>
       </c>
       <c r="I267" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J267" s="15" t="s">
         <v>16</v>
@@ -12700,10 +12704,10 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="B268" s="10" t="s">
         <v>884</v>
-      </c>
-      <c r="B268" s="10" t="s">
-        <v>885</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>13</v>
@@ -12721,18 +12725,18 @@
         <v>17</v>
       </c>
       <c r="I268" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="J268" s="13" t="s">
         <v>886</v>
-      </c>
-      <c r="J268" s="13" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="B269" s="10" t="s">
         <v>888</v>
-      </c>
-      <c r="B269" s="10" t="s">
-        <v>889</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>13</v>
@@ -12750,7 +12754,7 @@
         <v>17</v>
       </c>
       <c r="I269" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J269" s="15" t="s">
         <v>16</v>
@@ -12758,10 +12762,10 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="B270" s="7" t="s">
         <v>891</v>
-      </c>
-      <c r="B270" s="7" t="s">
-        <v>892</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>13</v>
@@ -12779,7 +12783,7 @@
         <v>17</v>
       </c>
       <c r="I270" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J270" s="15" t="s">
         <v>16</v>
@@ -12787,10 +12791,10 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="B271" s="7" t="s">
         <v>894</v>
-      </c>
-      <c r="B271" s="7" t="s">
-        <v>895</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>13</v>
@@ -12808,7 +12812,7 @@
         <v>17</v>
       </c>
       <c r="I271" s="7" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J271" s="15" t="s">
         <v>16</v>
@@ -12816,10 +12820,10 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="B272" s="7" t="s">
         <v>897</v>
-      </c>
-      <c r="B272" s="7" t="s">
-        <v>898</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>13</v>
@@ -12837,7 +12841,7 @@
         <v>17</v>
       </c>
       <c r="I272" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J272" s="15" t="s">
         <v>16</v>
@@ -12845,10 +12849,10 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="B273" s="10" t="s">
         <v>900</v>
-      </c>
-      <c r="B273" s="10" t="s">
-        <v>901</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>13</v>
@@ -12866,7 +12870,7 @@
         <v>17</v>
       </c>
       <c r="I273" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J273" s="15" t="s">
         <v>16</v>
@@ -12874,10 +12878,10 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="B274" s="10" t="s">
         <v>903</v>
-      </c>
-      <c r="B274" s="10" t="s">
-        <v>904</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>13</v>
@@ -12895,18 +12899,18 @@
         <v>17</v>
       </c>
       <c r="I274" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="J274" s="13" t="s">
         <v>905</v>
-      </c>
-      <c r="J274" s="13" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>13</v>
@@ -12924,18 +12928,18 @@
         <v>17</v>
       </c>
       <c r="I275" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J275" s="13" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="B276" s="7" t="s">
         <v>909</v>
-      </c>
-      <c r="B276" s="7" t="s">
-        <v>910</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>13</v>
@@ -12953,7 +12957,7 @@
         <v>17</v>
       </c>
       <c r="I276" s="7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J276" s="15" t="s">
         <v>16</v>
@@ -12961,10 +12965,10 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="B277" s="10" t="s">
         <v>912</v>
-      </c>
-      <c r="B277" s="10" t="s">
-        <v>913</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>13</v>
@@ -12982,15 +12986,15 @@
         <v>17</v>
       </c>
       <c r="I277" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="J277" t="s">
         <v>914</v>
-      </c>
-      <c r="J277" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B278" s="7" t="s">
         <v>370</v>
@@ -13011,7 +13015,7 @@
         <v>17</v>
       </c>
       <c r="I278" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J278" s="15" t="s">
         <v>16</v>
@@ -13019,10 +13023,10 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>13</v>
@@ -13040,7 +13044,7 @@
         <v>17</v>
       </c>
       <c r="I279" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J279" s="15" t="s">
         <v>16</v>
@@ -13048,10 +13052,10 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="B280" s="7" t="s">
         <v>919</v>
-      </c>
-      <c r="B280" s="7" t="s">
-        <v>920</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>13</v>
@@ -13069,7 +13073,7 @@
         <v>17</v>
       </c>
       <c r="I280" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J280" s="15" t="s">
         <v>16</v>
@@ -13077,10 +13081,10 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="B281" s="7" t="s">
         <v>922</v>
-      </c>
-      <c r="B281" s="7" t="s">
-        <v>923</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>13</v>
@@ -13098,7 +13102,7 @@
         <v>17</v>
       </c>
       <c r="I281" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J281" s="15" t="s">
         <v>16</v>
@@ -13106,10 +13110,10 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="B282" s="7" t="s">
         <v>925</v>
-      </c>
-      <c r="B282" s="7" t="s">
-        <v>926</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>13</v>
@@ -13127,7 +13131,7 @@
         <v>17</v>
       </c>
       <c r="I282" s="7" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J282" s="15" t="s">
         <v>16</v>
@@ -13135,10 +13139,10 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="B283" s="10" t="s">
         <v>928</v>
-      </c>
-      <c r="B283" s="10" t="s">
-        <v>929</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>13</v>
@@ -13156,7 +13160,7 @@
         <v>17</v>
       </c>
       <c r="I283" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J283" s="15" t="s">
         <v>16</v>
@@ -13164,10 +13168,10 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>561</v>
@@ -13185,18 +13189,18 @@
         <v>17</v>
       </c>
       <c r="I284" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J284" s="13" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="B285" s="7" t="s">
         <v>933</v>
-      </c>
-      <c r="B285" s="7" t="s">
-        <v>934</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>13</v>
@@ -13214,7 +13218,7 @@
         <v>17</v>
       </c>
       <c r="I285" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J285" s="15" t="s">
         <v>16</v>
@@ -13222,10 +13226,10 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="B286" s="7" t="s">
         <v>936</v>
-      </c>
-      <c r="B286" s="7" t="s">
-        <v>937</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>13</v>
@@ -13243,7 +13247,7 @@
         <v>17</v>
       </c>
       <c r="I286" s="7" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J286" s="15" t="s">
         <v>16</v>
@@ -13251,10 +13255,10 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>13</v>
@@ -13272,18 +13276,18 @@
         <v>17</v>
       </c>
       <c r="I287" s="7" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J287" s="13" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="B288" s="7" t="s">
         <v>941</v>
-      </c>
-      <c r="B288" s="7" t="s">
-        <v>942</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>13</v>
@@ -13301,7 +13305,7 @@
         <v>17</v>
       </c>
       <c r="I288" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J288" s="15" t="s">
         <v>16</v>
@@ -13309,10 +13313,10 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="B289" s="7" t="s">
         <v>944</v>
-      </c>
-      <c r="B289" s="7" t="s">
-        <v>945</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>13</v>
@@ -13330,7 +13334,7 @@
         <v>17</v>
       </c>
       <c r="I289" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J289" s="15" t="s">
         <v>16</v>
@@ -13338,10 +13342,10 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="B290" s="7" t="s">
         <v>947</v>
-      </c>
-      <c r="B290" s="7" t="s">
-        <v>948</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>355</v>
@@ -13350,7 +13354,7 @@
         <v>14</v>
       </c>
       <c r="E290" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>16</v>
@@ -13362,7 +13366,7 @@
         <v>18</v>
       </c>
       <c r="I290" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J290" s="15" t="s">
         <v>16</v>
@@ -13370,10 +13374,10 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>561</v>
@@ -13382,7 +13386,7 @@
         <v>28</v>
       </c>
       <c r="E291" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>16</v>
@@ -13391,21 +13395,21 @@
         <v>181</v>
       </c>
       <c r="H291" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="I291" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="J291" s="13" t="s">
         <v>953</v>
-      </c>
-      <c r="I291" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="J291" s="13" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="B292" s="7" t="s">
         <v>955</v>
-      </c>
-      <c r="B292" s="7" t="s">
-        <v>956</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>13</v>
@@ -13423,7 +13427,7 @@
         <v>17</v>
       </c>
       <c r="I292" s="7" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J292" s="15" t="s">
         <v>16</v>
@@ -13431,10 +13435,10 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="B293" s="10" t="s">
         <v>958</v>
-      </c>
-      <c r="B293" s="10" t="s">
-        <v>959</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>355</v>
@@ -13452,7 +13456,7 @@
         <v>181</v>
       </c>
       <c r="I293" s="7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J293" s="15" t="s">
         <v>16</v>
@@ -13460,10 +13464,10 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="B294" s="10" t="s">
         <v>961</v>
-      </c>
-      <c r="B294" s="10" t="s">
-        <v>962</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>355</v>
@@ -13472,7 +13476,7 @@
         <v>14</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>16</v>
@@ -13484,7 +13488,7 @@
         <v>18</v>
       </c>
       <c r="I294" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J294" s="15" t="s">
         <v>16</v>
@@ -13492,10 +13496,10 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="B295" s="7" t="s">
         <v>965</v>
-      </c>
-      <c r="B295" s="7" t="s">
-        <v>966</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>13</v>
@@ -13513,7 +13517,7 @@
         <v>17</v>
       </c>
       <c r="I295" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J295" s="15" t="s">
         <v>16</v>
@@ -13521,10 +13525,10 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>13</v>
@@ -13533,7 +13537,7 @@
         <v>28</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>16</v>
@@ -13545,7 +13549,7 @@
         <v>18</v>
       </c>
       <c r="I296" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J296" s="15" t="s">
         <v>16</v>
@@ -13553,10 +13557,10 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="B297" s="7" t="s">
         <v>969</v>
-      </c>
-      <c r="B297" s="7" t="s">
-        <v>970</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>13</v>
@@ -13574,18 +13578,18 @@
         <v>17</v>
       </c>
       <c r="I297" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="J297" s="10" t="s">
         <v>971</v>
-      </c>
-      <c r="J297" s="10" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="B298" s="10" t="s">
         <v>973</v>
-      </c>
-      <c r="B298" s="10" t="s">
-        <v>974</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>13</v>
@@ -13603,7 +13607,7 @@
         <v>17</v>
       </c>
       <c r="I298" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J298" s="15" t="s">
         <v>16</v>
@@ -13611,10 +13615,10 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="B299" s="7" t="s">
         <v>976</v>
-      </c>
-      <c r="B299" s="7" t="s">
-        <v>977</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>13</v>
@@ -13632,27 +13636,27 @@
         <v>17</v>
       </c>
       <c r="I299" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="J299" s="10" t="s">
         <v>978</v>
-      </c>
-      <c r="J299" s="10" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="B300" s="10" t="s">
         <v>980</v>
       </c>
-      <c r="B300" s="10" t="s">
+      <c r="C300" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E300" s="2" t="s">
         <v>981</v>
-      </c>
-      <c r="C300" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>982</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>16</v>
@@ -13664,7 +13668,7 @@
         <v>18</v>
       </c>
       <c r="I300" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J300" s="15" t="s">
         <v>16</v>
@@ -13672,10 +13676,10 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="B301" s="7" t="s">
         <v>984</v>
-      </c>
-      <c r="B301" s="7" t="s">
-        <v>985</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>13</v>
@@ -13693,7 +13697,7 @@
         <v>17</v>
       </c>
       <c r="I301" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J301" s="15" t="s">
         <v>16</v>
@@ -13701,10 +13705,10 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="B302" s="7" t="s">
         <v>987</v>
-      </c>
-      <c r="B302" s="7" t="s">
-        <v>988</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>13</v>
@@ -13722,21 +13726,21 @@
         <v>17</v>
       </c>
       <c r="H302" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="I302" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="I302" s="7" t="s">
+      <c r="J302" s="10" t="s">
         <v>990</v>
-      </c>
-      <c r="J302" s="10" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="B303" s="7" t="s">
         <v>992</v>
-      </c>
-      <c r="B303" s="7" t="s">
-        <v>993</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>13</v>
@@ -13754,7 +13758,7 @@
         <v>17</v>
       </c>
       <c r="I303" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J303" s="15" t="s">
         <v>16</v>
@@ -13762,10 +13766,10 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="B304" s="7" t="s">
         <v>995</v>
-      </c>
-      <c r="B304" s="7" t="s">
-        <v>996</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>13</v>
@@ -13783,18 +13787,18 @@
         <v>17</v>
       </c>
       <c r="I304" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="J304" s="13" t="s">
         <v>997</v>
-      </c>
-      <c r="J304" s="13" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="B305" s="7" t="s">
         <v>999</v>
-      </c>
-      <c r="B305" s="7" t="s">
-        <v>1000</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>13</v>
@@ -13812,18 +13816,18 @@
         <v>17</v>
       </c>
       <c r="I305" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J305" s="13" t="s">
         <v>1001</v>
-      </c>
-      <c r="J305" s="13" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B306" s="10" t="s">
         <v>1003</v>
-      </c>
-      <c r="B306" s="10" t="s">
-        <v>1004</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>355</v>
@@ -13832,7 +13836,7 @@
         <v>14</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>16</v>
@@ -13844,7 +13848,7 @@
         <v>18</v>
       </c>
       <c r="I306" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J306" s="15" t="s">
         <v>16</v>
@@ -13852,10 +13856,10 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>355</v>
@@ -13864,7 +13868,7 @@
         <v>28</v>
       </c>
       <c r="E307" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>16</v>
@@ -13873,21 +13877,21 @@
         <v>181</v>
       </c>
       <c r="H307" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="I307" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J307" s="13" t="s">
         <v>953</v>
-      </c>
-      <c r="I307" s="7" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J307" s="13" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B308" s="10" t="s">
         <v>1008</v>
-      </c>
-      <c r="B308" s="10" t="s">
-        <v>1009</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>13</v>
@@ -13905,18 +13909,18 @@
         <v>17</v>
       </c>
       <c r="I308" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J308" s="13" t="s">
         <v>1010</v>
-      </c>
-      <c r="J308" s="13" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B309" s="7" t="s">
         <v>1012</v>
-      </c>
-      <c r="B309" s="7" t="s">
-        <v>1013</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>13</v>
@@ -13934,18 +13938,18 @@
         <v>17</v>
       </c>
       <c r="I309" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J309" s="13" t="s">
         <v>1014</v>
-      </c>
-      <c r="J309" s="13" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B310" s="7" t="s">
         <v>1016</v>
-      </c>
-      <c r="B310" s="7" t="s">
-        <v>1017</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>13</v>
@@ -13963,7 +13967,7 @@
         <v>17</v>
       </c>
       <c r="I310" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J310" s="15" t="s">
         <v>16</v>
@@ -13971,10 +13975,10 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B311" s="7" t="s">
         <v>1019</v>
-      </c>
-      <c r="B311" s="7" t="s">
-        <v>1020</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>13</v>
@@ -13992,7 +13996,7 @@
         <v>17</v>
       </c>
       <c r="I311" s="7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J311" s="15" t="s">
         <v>16</v>
@@ -14000,10 +14004,10 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B312" s="7" t="s">
         <v>1022</v>
-      </c>
-      <c r="B312" s="7" t="s">
-        <v>1023</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>13</v>
@@ -14021,18 +14025,18 @@
         <v>17</v>
       </c>
       <c r="I312" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J312" s="13" t="s">
         <v>1024</v>
-      </c>
-      <c r="J312" s="13" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B313" s="7" t="s">
         <v>1026</v>
-      </c>
-      <c r="B313" s="7" t="s">
-        <v>1027</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>13</v>
@@ -14050,21 +14054,21 @@
         <v>17</v>
       </c>
       <c r="H313" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I313" s="7" t="s">
         <v>1028</v>
       </c>
-      <c r="I313" s="7" t="s">
-        <v>1029</v>
-      </c>
       <c r="J313" s="13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B314" s="10" t="s">
         <v>1030</v>
-      </c>
-      <c r="B314" s="10" t="s">
-        <v>1031</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>13</v>
@@ -14085,15 +14089,15 @@
         <v>452</v>
       </c>
       <c r="J314" s="13" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B315" s="7" t="s">
         <v>1033</v>
-      </c>
-      <c r="B315" s="7" t="s">
-        <v>1034</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>13</v>
@@ -14111,7 +14115,7 @@
         <v>17</v>
       </c>
       <c r="I315" s="7" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J315" s="15" t="s">
         <v>16</v>
@@ -14119,10 +14123,10 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B316" s="7" t="s">
         <v>1036</v>
-      </c>
-      <c r="B316" s="7" t="s">
-        <v>1037</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>13</v>
@@ -14140,18 +14144,18 @@
         <v>17</v>
       </c>
       <c r="I316" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J316" s="13" t="s">
         <v>1038</v>
-      </c>
-      <c r="J316" s="13" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B317" s="7" t="s">
         <v>1040</v>
-      </c>
-      <c r="B317" s="7" t="s">
-        <v>1041</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>13</v>
@@ -14169,18 +14173,18 @@
         <v>17</v>
       </c>
       <c r="I317" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J317" s="13" t="s">
         <v>1042</v>
-      </c>
-      <c r="J317" s="13" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B318" s="7" t="s">
         <v>1044</v>
-      </c>
-      <c r="B318" s="7" t="s">
-        <v>1045</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>13</v>
@@ -14198,18 +14202,18 @@
         <v>17</v>
       </c>
       <c r="I318" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J318" t="s">
         <v>1046</v>
-      </c>
-      <c r="J318" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B319" s="7" t="s">
         <v>1048</v>
-      </c>
-      <c r="B319" s="7" t="s">
-        <v>1049</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>13</v>
@@ -14227,7 +14231,7 @@
         <v>17</v>
       </c>
       <c r="I319" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="J319" s="15" t="s">
         <v>16</v>
@@ -14235,10 +14239,10 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B320" s="10" t="s">
         <v>1051</v>
-      </c>
-      <c r="B320" s="10" t="s">
-        <v>1052</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>13</v>
@@ -14256,18 +14260,18 @@
         <v>17</v>
       </c>
       <c r="I320" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J320" s="13" t="s">
         <v>1053</v>
-      </c>
-      <c r="J320" s="13" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B321" s="7" t="s">
         <v>1055</v>
-      </c>
-      <c r="B321" s="7" t="s">
-        <v>1056</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>13</v>
@@ -14285,7 +14289,7 @@
         <v>17</v>
       </c>
       <c r="I321" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="J321" s="15" t="s">
         <v>16</v>
@@ -14293,10 +14297,10 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B322" s="7" t="s">
         <v>1058</v>
-      </c>
-      <c r="B322" s="7" t="s">
-        <v>1059</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>13</v>
@@ -14314,7 +14318,7 @@
         <v>17</v>
       </c>
       <c r="I322" s="7" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="J322" s="15" t="s">
         <v>16</v>
@@ -14322,10 +14326,10 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B323" s="7" t="s">
         <v>1061</v>
-      </c>
-      <c r="B323" s="7" t="s">
-        <v>1062</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>13</v>
@@ -14343,7 +14347,7 @@
         <v>17</v>
       </c>
       <c r="I323" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="J323" s="15" t="s">
         <v>16</v>
@@ -14351,39 +14355,39 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B324" s="10" t="s">
         <v>1064</v>
       </c>
-      <c r="B324" s="10" t="s">
+      <c r="C324" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E324" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="C324" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E324" s="2" t="s">
+      <c r="F324" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G324" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I324" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="F324" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G324" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I324" s="7" t="s">
+      <c r="J324" s="13" t="s">
         <v>1067</v>
-      </c>
-      <c r="J324" s="13" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B325" s="10" t="s">
         <v>1069</v>
-      </c>
-      <c r="B325" s="10" t="s">
-        <v>1070</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>355</v>
@@ -14392,7 +14396,7 @@
         <v>14</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>16</v>
@@ -14404,7 +14408,7 @@
         <v>18</v>
       </c>
       <c r="I325" s="7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="J325" s="15" t="s">
         <v>16</v>
@@ -14412,10 +14416,10 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B326" s="7" t="s">
         <v>1072</v>
-      </c>
-      <c r="B326" s="7" t="s">
-        <v>1073</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>355</v>
@@ -14424,7 +14428,7 @@
         <v>14</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>16</v>
@@ -14436,7 +14440,7 @@
         <v>18</v>
       </c>
       <c r="I326" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="J326" s="15" t="s">
         <v>16</v>
@@ -14444,11 +14448,11 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B327" s="10" t="s">
         <v>1075</v>
       </c>
-      <c r="B327" s="10" t="s">
-        <v>1076</v>
-      </c>
       <c r="C327" s="7" t="s">
         <v>13</v>
       </c>
@@ -14456,7 +14460,7 @@
         <v>14</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>16</v>
@@ -14468,7 +14472,7 @@
         <v>18</v>
       </c>
       <c r="I327" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J327" s="15" t="s">
         <v>16</v>
@@ -14476,10 +14480,10 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B328" s="10" t="s">
         <v>1078</v>
-      </c>
-      <c r="B328" s="10" t="s">
-        <v>1079</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>13</v>
@@ -14497,10 +14501,10 @@
         <v>17</v>
       </c>
       <c r="H328" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I328" s="7" t="s">
         <v>1080</v>
-      </c>
-      <c r="I328" s="7" t="s">
-        <v>1081</v>
       </c>
       <c r="J328" s="15" t="s">
         <v>16</v>
@@ -14508,19 +14512,19 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B329" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="B329" s="7" t="s">
+      <c r="C329" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E329" s="2" t="s">
         <v>1083</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E329" s="2" t="s">
-        <v>1084</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>16</v>
@@ -14532,18 +14536,18 @@
         <v>18</v>
       </c>
       <c r="I329" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J329" s="10" t="s">
         <v>1085</v>
-      </c>
-      <c r="J329" s="10" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B330" s="7" t="s">
         <v>1087</v>
-      </c>
-      <c r="B330" s="7" t="s">
-        <v>1088</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>13</v>
@@ -14561,7 +14565,7 @@
         <v>17</v>
       </c>
       <c r="I330" s="7" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="J330" s="15" t="s">
         <v>16</v>
@@ -14569,10 +14573,10 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B331" s="10" t="s">
         <v>1090</v>
-      </c>
-      <c r="B331" s="10" t="s">
-        <v>1091</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>13</v>
@@ -14590,18 +14594,18 @@
         <v>17</v>
       </c>
       <c r="I331" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J331" s="5" t="s">
         <v>1092</v>
-      </c>
-      <c r="J331" s="5" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B332" s="7" t="s">
         <v>1094</v>
-      </c>
-      <c r="B332" s="7" t="s">
-        <v>1095</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>13</v>
@@ -14619,7 +14623,7 @@
         <v>17</v>
       </c>
       <c r="I332" s="7" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J332" s="15" t="s">
         <v>16</v>
@@ -14627,10 +14631,10 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B333" s="7" t="s">
         <v>1097</v>
-      </c>
-      <c r="B333" s="7" t="s">
-        <v>1098</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>13</v>
@@ -14648,7 +14652,7 @@
         <v>17</v>
       </c>
       <c r="I333" s="7" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J333" s="15" t="s">
         <v>16</v>
@@ -14656,10 +14660,10 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B334" s="7" t="s">
         <v>1100</v>
-      </c>
-      <c r="B334" s="7" t="s">
-        <v>1101</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>13</v>
@@ -14677,7 +14681,7 @@
         <v>17</v>
       </c>
       <c r="I334" s="7" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="J334" s="15" t="s">
         <v>16</v>
@@ -14685,10 +14689,10 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B335" s="7" t="s">
         <v>1103</v>
-      </c>
-      <c r="B335" s="7" t="s">
-        <v>1104</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>13</v>
@@ -14706,7 +14710,7 @@
         <v>17</v>
       </c>
       <c r="I335" s="7" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J335" s="15" t="s">
         <v>16</v>
@@ -14714,10 +14718,10 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B336" s="7" t="s">
         <v>1106</v>
-      </c>
-      <c r="B336" s="7" t="s">
-        <v>1107</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>13</v>
@@ -14735,7 +14739,7 @@
         <v>17</v>
       </c>
       <c r="I336" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="J336" s="15" t="s">
         <v>16</v>
@@ -14743,10 +14747,10 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B337" s="10" t="s">
         <v>1109</v>
-      </c>
-      <c r="B337" s="10" t="s">
-        <v>1110</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>355</v>
@@ -14764,18 +14768,18 @@
         <v>181</v>
       </c>
       <c r="I337" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J337" s="13" t="s">
         <v>1111</v>
-      </c>
-      <c r="J337" s="13" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B338" s="7" t="s">
         <v>1113</v>
-      </c>
-      <c r="B338" s="7" t="s">
-        <v>1114</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>13</v>
@@ -14793,7 +14797,7 @@
         <v>17</v>
       </c>
       <c r="I338" s="7" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="J338" s="15" t="s">
         <v>16</v>
@@ -14801,10 +14805,10 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>561</v>
@@ -14822,7 +14826,7 @@
         <v>16</v>
       </c>
       <c r="I339" s="7" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="J339" s="15" t="s">
         <v>16</v>
@@ -14830,10 +14834,10 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B340" s="7" t="s">
         <v>1117</v>
-      </c>
-      <c r="B340" s="7" t="s">
-        <v>1118</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>13</v>
@@ -14851,7 +14855,7 @@
         <v>17</v>
       </c>
       <c r="I340" s="7" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="J340" s="15" t="s">
         <v>16</v>
@@ -14859,10 +14863,10 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B341" s="7" t="s">
         <v>1120</v>
-      </c>
-      <c r="B341" s="7" t="s">
-        <v>1121</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>13</v>
@@ -14880,18 +14884,18 @@
         <v>17</v>
       </c>
       <c r="I341" s="7" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="J341" s="13" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="7" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>13</v>
@@ -14909,7 +14913,7 @@
         <v>17</v>
       </c>
       <c r="I342" s="7" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="J342" s="15" t="s">
         <v>16</v>
@@ -14917,10 +14921,10 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B343" s="7" t="s">
         <v>1125</v>
-      </c>
-      <c r="B343" s="7" t="s">
-        <v>1126</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>13</v>
@@ -14938,7 +14942,7 @@
         <v>17</v>
       </c>
       <c r="I343" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="J343" s="15" t="s">
         <v>16</v>
@@ -14946,10 +14950,10 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>13</v>
@@ -14967,7 +14971,7 @@
         <v>181</v>
       </c>
       <c r="I344" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="J344" s="15" t="s">
         <v>16</v>
@@ -14975,10 +14979,10 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="21" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B345" s="7" t="s">
         <v>1129</v>
-      </c>
-      <c r="B345" s="7" t="s">
-        <v>1130</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>13</v>
@@ -14996,7 +15000,7 @@
         <v>17</v>
       </c>
       <c r="I345" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="J345" s="15" t="s">
         <v>16</v>
@@ -15004,10 +15008,10 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B346" s="7" t="s">
         <v>1132</v>
-      </c>
-      <c r="B346" s="7" t="s">
-        <v>1133</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>13</v>
@@ -15028,7 +15032,7 @@
         <v>152</v>
       </c>
       <c r="I346" s="7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="J346" s="15" t="s">
         <v>16</v>
@@ -15036,10 +15040,10 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="21" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B347" s="10" t="s">
         <v>1135</v>
-      </c>
-      <c r="B347" s="10" t="s">
-        <v>1136</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>13</v>
@@ -15057,18 +15061,18 @@
         <v>17</v>
       </c>
       <c r="I347" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J347" s="13" t="s">
         <v>1137</v>
-      </c>
-      <c r="J347" s="13" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="21" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B348" s="7" t="s">
         <v>1139</v>
-      </c>
-      <c r="B348" s="7" t="s">
-        <v>1140</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>13</v>
@@ -15086,7 +15090,7 @@
         <v>17</v>
       </c>
       <c r="I348" s="7" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="J348" s="15" t="s">
         <v>16</v>
@@ -15094,10 +15098,10 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="21" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B349" s="10" t="s">
         <v>1142</v>
-      </c>
-      <c r="B349" s="10" t="s">
-        <v>1143</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>13</v>
@@ -15123,10 +15127,10 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="21" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B350" s="10" t="s">
         <v>1144</v>
-      </c>
-      <c r="B350" s="10" t="s">
-        <v>1145</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>13</v>
@@ -15144,7 +15148,7 @@
         <v>17</v>
       </c>
       <c r="I350" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J350" s="15" t="s">
         <v>16</v>
@@ -15152,11 +15156,11 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="21" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B351" s="10" t="s">
         <v>1147</v>
       </c>
-      <c r="B351" s="10" t="s">
-        <v>1148</v>
-      </c>
       <c r="C351" s="7" t="s">
         <v>13</v>
       </c>
@@ -15164,7 +15168,7 @@
         <v>14</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>16</v>
@@ -15176,7 +15180,7 @@
         <v>18</v>
       </c>
       <c r="I351" s="7" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J351" s="15" t="s">
         <v>16</v>
@@ -15184,10 +15188,10 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="21" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B352" s="10" t="s">
         <v>1150</v>
-      </c>
-      <c r="B352" s="10" t="s">
-        <v>1151</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>13</v>
@@ -15205,18 +15209,18 @@
         <v>17</v>
       </c>
       <c r="I352" s="7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J352" s="13" t="s">
         <v>1152</v>
-      </c>
-      <c r="J352" s="13" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="21" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B353" s="7" t="s">
         <v>1154</v>
-      </c>
-      <c r="B353" s="7" t="s">
-        <v>1155</v>
       </c>
       <c r="C353" s="7" t="s">
         <v>13</v>
@@ -15234,7 +15238,7 @@
         <v>17</v>
       </c>
       <c r="I353" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J353" s="15" t="s">
         <v>16</v>
@@ -15242,10 +15246,10 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="21" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B354" s="7" t="s">
         <v>1157</v>
-      </c>
-      <c r="B354" s="7" t="s">
-        <v>1158</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>13</v>
@@ -15263,7 +15267,7 @@
         <v>17</v>
       </c>
       <c r="I354" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J354" s="15" t="s">
         <v>16</v>
@@ -15271,10 +15275,10 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="21" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B355" s="10" t="s">
         <v>1160</v>
-      </c>
-      <c r="B355" s="10" t="s">
-        <v>1161</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>355</v>
@@ -15283,7 +15287,7 @@
         <v>14</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>16</v>
@@ -15292,10 +15296,10 @@
         <v>181</v>
       </c>
       <c r="H355" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I355" s="7" t="s">
         <v>1163</v>
-      </c>
-      <c r="I355" s="7" t="s">
-        <v>1164</v>
       </c>
       <c r="J355" s="15" t="s">
         <v>16</v>
@@ -15303,10 +15307,10 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B356" s="10" t="s">
         <v>1165</v>
-      </c>
-      <c r="B356" s="10" t="s">
-        <v>1166</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>355</v>
@@ -15324,7 +15328,7 @@
         <v>181</v>
       </c>
       <c r="I356" s="7" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="J356" s="15" t="s">
         <v>16</v>
@@ -15332,10 +15336,10 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="21" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B357" s="7" t="s">
         <v>1168</v>
-      </c>
-      <c r="B357" s="7" t="s">
-        <v>1169</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>355</v>
@@ -15344,7 +15348,7 @@
         <v>14</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>16</v>
@@ -15353,10 +15357,10 @@
         <v>181</v>
       </c>
       <c r="H357" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I357" s="7" t="s">
         <v>1171</v>
-      </c>
-      <c r="I357" s="7" t="s">
-        <v>1172</v>
       </c>
       <c r="J357" s="15" t="s">
         <v>16</v>
@@ -15364,10 +15368,10 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="21" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>16</v>
@@ -15385,13 +15389,13 @@
         <v>181</v>
       </c>
       <c r="H358" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I358" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J358" s="13" t="s">
         <v>1174</v>
-      </c>
-      <c r="I358" s="7" t="s">
-        <v>1172</v>
-      </c>
-      <c r="J358" s="13" t="s">
-        <v>1175</v>
       </c>
     </row>
   </sheetData>
@@ -15556,90 +15560,89 @@
     <hyperlink ref="J242" r:id="rId158" xr:uid="{61790652-79BA-47A1-ABDE-02D066C6D608}"/>
     <hyperlink ref="B246" r:id="rId159" xr:uid="{D2FF3E03-B911-40B9-BCC7-BEED809BC3F1}"/>
     <hyperlink ref="B249" r:id="rId160" xr:uid="{7D1F0525-7489-4BE2-9565-B20583A1D5B5}"/>
-    <hyperlink ref="J249" r:id="rId161" xr:uid="{23C78457-507B-41E4-949D-B109B21A8983}"/>
-    <hyperlink ref="J252" r:id="rId162" location="%7B%22table_sort_history%22%3A%22main.collection_asc%22%7D" xr:uid="{8DE6CCE1-6A85-4F2A-ABE6-2D6850271723}"/>
-    <hyperlink ref="B253" r:id="rId163" xr:uid="{C656E25E-58A7-48BE-BBB4-F3752A882ADA}"/>
-    <hyperlink ref="J253" r:id="rId164" xr:uid="{136AA7A7-AC19-4344-9BCA-5C037B8B5B8D}"/>
-    <hyperlink ref="J257" r:id="rId165" xr:uid="{8B79F2AB-CB25-4693-B4B7-DEF5A4B0611A}"/>
-    <hyperlink ref="B258" r:id="rId166" xr:uid="{B00A8A94-DA3C-4843-A2E8-6BE43BA5D636}"/>
-    <hyperlink ref="B259" r:id="rId167" xr:uid="{8BCB2B2E-E0B1-4AFF-83FE-5EC2D3D9F054}"/>
-    <hyperlink ref="J259" r:id="rId168" xr:uid="{980AB663-B77A-4D93-8230-84DD159CE8F6}"/>
-    <hyperlink ref="B260" r:id="rId169" xr:uid="{B4F35BD7-57BD-49F9-8FBB-0E346EB21756}"/>
-    <hyperlink ref="B261" r:id="rId170" xr:uid="{81FD2235-3FBF-4218-81C1-4307FEE2E064}"/>
-    <hyperlink ref="J261" r:id="rId171" xr:uid="{DA370A54-C605-4623-803A-EFA7F3311458}"/>
-    <hyperlink ref="J264" r:id="rId172" xr:uid="{1D128F8B-23AC-4F63-A534-BA4CCC22FBE6}"/>
-    <hyperlink ref="B265" r:id="rId173" xr:uid="{CD738F0A-3905-4FFB-8B7B-01DF82180109}"/>
-    <hyperlink ref="B266" r:id="rId174" xr:uid="{F1D2012A-A227-4CF4-9481-30698FA339CA}"/>
-    <hyperlink ref="B267" r:id="rId175" xr:uid="{01A3D916-6D7C-4D31-8D16-E7562E1E6B3F}"/>
-    <hyperlink ref="B268" r:id="rId176" xr:uid="{C9969A8E-EB2E-4753-900C-F19316AD32B5}"/>
-    <hyperlink ref="J268" r:id="rId177" xr:uid="{2BCDEF83-9472-4D38-A2B7-F943971D0B25}"/>
-    <hyperlink ref="B269" r:id="rId178" xr:uid="{6C3548EB-92A9-4609-ADD2-6A39745FC410}"/>
-    <hyperlink ref="B273" r:id="rId179" xr:uid="{746BA7C4-C52F-46E5-942E-E6A0B30FB841}"/>
-    <hyperlink ref="B274" r:id="rId180" xr:uid="{B4D0814F-A8C9-4A88-837C-DB0A8BBFC57F}"/>
-    <hyperlink ref="J274" r:id="rId181" xr:uid="{E65CD9B3-2244-482D-8D14-9DB31380220D}"/>
-    <hyperlink ref="B275" r:id="rId182" xr:uid="{4F2BBCCF-AFE9-4A62-B938-368D9A275A5E}"/>
-    <hyperlink ref="J275" r:id="rId183" xr:uid="{B3E4B57C-0F50-41A9-8F2F-6F9B359BD59E}"/>
-    <hyperlink ref="B277" r:id="rId184" xr:uid="{DDA46B40-7D56-480B-AFBC-21D6195363B4}"/>
-    <hyperlink ref="B279" r:id="rId185" xr:uid="{48073F32-AB15-4EF2-AED9-051BFAF09A2C}"/>
-    <hyperlink ref="B283" r:id="rId186" xr:uid="{CDD7CE5A-C6E0-47E6-884E-A29D9A980F01}"/>
-    <hyperlink ref="B284" r:id="rId187" xr:uid="{13834590-0FAE-4CB5-BB8D-AE80587CC8DA}"/>
-    <hyperlink ref="J284" r:id="rId188" xr:uid="{17C20CD6-482F-4D18-97BC-A5B384DBB466}"/>
-    <hyperlink ref="B287" r:id="rId189" xr:uid="{DDD34C8C-F4A4-487E-9095-753923EA8813}"/>
-    <hyperlink ref="J287" r:id="rId190" xr:uid="{656577E6-89CC-48B9-9A02-6C8D397DE696}"/>
-    <hyperlink ref="B291" r:id="rId191" xr:uid="{BF41D934-DAFD-489E-BE95-357FEFBBBD22}"/>
-    <hyperlink ref="J291" r:id="rId192" xr:uid="{7071C022-DB63-46A5-959F-2102A58E9455}"/>
-    <hyperlink ref="B293" r:id="rId193" xr:uid="{4E869A30-C033-43BD-A0DA-8E3CD8670827}"/>
-    <hyperlink ref="B294" r:id="rId194" xr:uid="{CBDC9F6D-6D25-40C5-88C1-5F1DE66FBBE9}"/>
-    <hyperlink ref="B296" r:id="rId195" xr:uid="{2F26A494-8E54-4A36-B4F2-FA3C69D76A9D}"/>
-    <hyperlink ref="J297" r:id="rId196" xr:uid="{096A7C7A-813A-4884-8FAF-A446AD102FA6}"/>
-    <hyperlink ref="B298" r:id="rId197" xr:uid="{5B5A57E4-46B8-4A4F-9C36-0615CA8217A4}"/>
-    <hyperlink ref="J299" r:id="rId198" xr:uid="{DE9014C7-2879-4487-8E61-93C678884EB4}"/>
-    <hyperlink ref="B300" r:id="rId199" xr:uid="{FAA1E669-D79B-47F9-A423-29DC459456EB}"/>
-    <hyperlink ref="J302" r:id="rId200" xr:uid="{A0BAC7B5-6C28-41E7-A2B3-AEC7A683DC47}"/>
-    <hyperlink ref="J304" r:id="rId201" xr:uid="{B1D0CE83-1FAD-4445-89A7-2DC12AC0FB49}"/>
-    <hyperlink ref="J305" r:id="rId202" xr:uid="{AAF9A93B-A8F1-49E3-98FF-54CA8D589691}"/>
-    <hyperlink ref="B306" r:id="rId203" xr:uid="{EF6D1BAE-EAFD-4295-B4DC-A48C4E97C6E7}"/>
-    <hyperlink ref="B307" r:id="rId204" xr:uid="{19624981-AAB1-4566-A079-ACBAD976885F}"/>
-    <hyperlink ref="J307" r:id="rId205" xr:uid="{82FE3467-5077-4029-A76D-65976807F9FB}"/>
-    <hyperlink ref="B308" r:id="rId206" xr:uid="{8467AE02-E07F-45BF-83A8-50C5246CEC7A}"/>
-    <hyperlink ref="J308" r:id="rId207" xr:uid="{BB524851-1136-4A45-A722-D97E4806CF41}"/>
-    <hyperlink ref="J309" r:id="rId208" xr:uid="{155D2EB5-FB3B-4647-B9A2-81AD789252B7}"/>
-    <hyperlink ref="J312" r:id="rId209" xr:uid="{BF82D2D7-F445-468E-BB31-D5AA22DB7B10}"/>
-    <hyperlink ref="J313" r:id="rId210" xr:uid="{33036867-DD2F-439D-8B3B-7929E51E0372}"/>
-    <hyperlink ref="B314" r:id="rId211" xr:uid="{1A9ECC1B-AED5-4F8C-8CA7-FEF965D47DA7}"/>
-    <hyperlink ref="J314" r:id="rId212" xr:uid="{32C5E0E2-81D8-46F9-95F5-024AFFCE6870}"/>
-    <hyperlink ref="J316" r:id="rId213" xr:uid="{7683FFB4-444E-49C0-B81C-62DD632BB7C2}"/>
-    <hyperlink ref="J317" r:id="rId214" xr:uid="{CA674382-188A-4CB4-A5A4-6CA4AC5EEF10}"/>
-    <hyperlink ref="B320" r:id="rId215" xr:uid="{8DC1724C-47FC-42FA-8A2B-B0F87D55C63F}"/>
-    <hyperlink ref="J320" r:id="rId216" xr:uid="{AA49FA04-750E-45D2-8CE5-C77432AA842C}"/>
-    <hyperlink ref="B324" r:id="rId217" xr:uid="{650305DF-4024-4C88-B5E1-FB4241877808}"/>
-    <hyperlink ref="J324" r:id="rId218" xr:uid="{C4283500-9B0E-4F8E-91FE-E46EE3E7B212}"/>
-    <hyperlink ref="B325" r:id="rId219" xr:uid="{8C352B65-440E-4EE3-8C2F-EDFB29FA4763}"/>
-    <hyperlink ref="B327" r:id="rId220" xr:uid="{14A1611F-46FA-4030-A2F2-A005A30EF604}"/>
-    <hyperlink ref="B328" r:id="rId221" xr:uid="{AC23C0A2-1B30-4729-942B-E43601BAE821}"/>
-    <hyperlink ref="J329" r:id="rId222" xr:uid="{97A5E83F-30E5-40BD-A407-49ECA55008B9}"/>
-    <hyperlink ref="B331" r:id="rId223" xr:uid="{55315E20-B763-43F1-8AD7-096F05F7B3D6}"/>
-    <hyperlink ref="J331" r:id="rId224" xr:uid="{86E4A33E-844B-4BD2-93E0-4E5BF34E8C95}"/>
-    <hyperlink ref="B337" r:id="rId225" xr:uid="{4B2ACB35-9E5C-473A-AA0E-67912E7E976A}"/>
-    <hyperlink ref="J337" r:id="rId226" xr:uid="{2E15281A-6174-4CB9-8F82-FFFC7D399400}"/>
-    <hyperlink ref="B339" r:id="rId227" xr:uid="{C9EDED0B-B2A6-41EE-9B44-40217669AED7}"/>
-    <hyperlink ref="J341" r:id="rId228" xr:uid="{C0977D05-0436-46D0-986A-5F3187F4C69E}"/>
-    <hyperlink ref="B344" r:id="rId229" xr:uid="{79C04F11-B2F4-49FF-B890-77D512E5FCA4}"/>
-    <hyperlink ref="B347" r:id="rId230" xr:uid="{EC7A9453-010A-4917-A429-5376C6007AD1}"/>
-    <hyperlink ref="J347" r:id="rId231" xr:uid="{524C144F-C50B-4D71-AEEE-5BB38F458019}"/>
-    <hyperlink ref="B349" r:id="rId232" xr:uid="{17EC44AE-C1BB-4CD1-98BD-0881A66303F7}"/>
-    <hyperlink ref="B350" r:id="rId233" xr:uid="{2024AF8C-4980-4385-91AB-D553439F2A92}"/>
-    <hyperlink ref="B351" r:id="rId234" xr:uid="{598D65F2-F394-46DC-98A4-BE050A41B43E}"/>
-    <hyperlink ref="B352" r:id="rId235" xr:uid="{DF8A5E88-5C2E-4B69-9140-85561CC8D3DF}"/>
-    <hyperlink ref="J352" r:id="rId236" xr:uid="{84A31E5A-F3F2-46CD-909A-4E086E36308A}"/>
-    <hyperlink ref="B355" r:id="rId237" xr:uid="{C7062DE0-1824-491D-9275-D7FCC860DD02}"/>
-    <hyperlink ref="B356" r:id="rId238" xr:uid="{D64B714E-2F33-41EC-AA28-0ECC5E22168B}"/>
-    <hyperlink ref="B358" r:id="rId239" xr:uid="{8072B7E0-73A3-4BAD-A835-E1D624579AFE}"/>
-    <hyperlink ref="J358" r:id="rId240" xr:uid="{91340B6E-65C6-4FE6-8C91-EC7D67A4F555}"/>
-    <hyperlink ref="B342" r:id="rId241" xr:uid="{EAADBE25-8BD5-F248-AC04-018ACA49F378}"/>
+    <hyperlink ref="J252" r:id="rId161" location="%7B%22table_sort_history%22%3A%22main.collection_asc%22%7D" xr:uid="{8DE6CCE1-6A85-4F2A-ABE6-2D6850271723}"/>
+    <hyperlink ref="B253" r:id="rId162" xr:uid="{C656E25E-58A7-48BE-BBB4-F3752A882ADA}"/>
+    <hyperlink ref="J253" r:id="rId163" xr:uid="{136AA7A7-AC19-4344-9BCA-5C037B8B5B8D}"/>
+    <hyperlink ref="J257" r:id="rId164" xr:uid="{8B79F2AB-CB25-4693-B4B7-DEF5A4B0611A}"/>
+    <hyperlink ref="B258" r:id="rId165" xr:uid="{B00A8A94-DA3C-4843-A2E8-6BE43BA5D636}"/>
+    <hyperlink ref="B259" r:id="rId166" xr:uid="{8BCB2B2E-E0B1-4AFF-83FE-5EC2D3D9F054}"/>
+    <hyperlink ref="J259" r:id="rId167" xr:uid="{980AB663-B77A-4D93-8230-84DD159CE8F6}"/>
+    <hyperlink ref="B260" r:id="rId168" xr:uid="{B4F35BD7-57BD-49F9-8FBB-0E346EB21756}"/>
+    <hyperlink ref="B261" r:id="rId169" xr:uid="{81FD2235-3FBF-4218-81C1-4307FEE2E064}"/>
+    <hyperlink ref="J261" r:id="rId170" xr:uid="{DA370A54-C605-4623-803A-EFA7F3311458}"/>
+    <hyperlink ref="J264" r:id="rId171" xr:uid="{1D128F8B-23AC-4F63-A534-BA4CCC22FBE6}"/>
+    <hyperlink ref="B265" r:id="rId172" xr:uid="{CD738F0A-3905-4FFB-8B7B-01DF82180109}"/>
+    <hyperlink ref="B266" r:id="rId173" xr:uid="{F1D2012A-A227-4CF4-9481-30698FA339CA}"/>
+    <hyperlink ref="B267" r:id="rId174" xr:uid="{01A3D916-6D7C-4D31-8D16-E7562E1E6B3F}"/>
+    <hyperlink ref="B268" r:id="rId175" xr:uid="{C9969A8E-EB2E-4753-900C-F19316AD32B5}"/>
+    <hyperlink ref="J268" r:id="rId176" xr:uid="{2BCDEF83-9472-4D38-A2B7-F943971D0B25}"/>
+    <hyperlink ref="B269" r:id="rId177" xr:uid="{6C3548EB-92A9-4609-ADD2-6A39745FC410}"/>
+    <hyperlink ref="B273" r:id="rId178" xr:uid="{746BA7C4-C52F-46E5-942E-E6A0B30FB841}"/>
+    <hyperlink ref="B274" r:id="rId179" xr:uid="{B4D0814F-A8C9-4A88-837C-DB0A8BBFC57F}"/>
+    <hyperlink ref="J274" r:id="rId180" xr:uid="{E65CD9B3-2244-482D-8D14-9DB31380220D}"/>
+    <hyperlink ref="B275" r:id="rId181" xr:uid="{4F2BBCCF-AFE9-4A62-B938-368D9A275A5E}"/>
+    <hyperlink ref="J275" r:id="rId182" xr:uid="{B3E4B57C-0F50-41A9-8F2F-6F9B359BD59E}"/>
+    <hyperlink ref="B277" r:id="rId183" xr:uid="{DDA46B40-7D56-480B-AFBC-21D6195363B4}"/>
+    <hyperlink ref="B279" r:id="rId184" xr:uid="{48073F32-AB15-4EF2-AED9-051BFAF09A2C}"/>
+    <hyperlink ref="B283" r:id="rId185" xr:uid="{CDD7CE5A-C6E0-47E6-884E-A29D9A980F01}"/>
+    <hyperlink ref="B284" r:id="rId186" xr:uid="{13834590-0FAE-4CB5-BB8D-AE80587CC8DA}"/>
+    <hyperlink ref="J284" r:id="rId187" xr:uid="{17C20CD6-482F-4D18-97BC-A5B384DBB466}"/>
+    <hyperlink ref="B287" r:id="rId188" xr:uid="{DDD34C8C-F4A4-487E-9095-753923EA8813}"/>
+    <hyperlink ref="J287" r:id="rId189" xr:uid="{656577E6-89CC-48B9-9A02-6C8D397DE696}"/>
+    <hyperlink ref="B291" r:id="rId190" xr:uid="{BF41D934-DAFD-489E-BE95-357FEFBBBD22}"/>
+    <hyperlink ref="J291" r:id="rId191" xr:uid="{7071C022-DB63-46A5-959F-2102A58E9455}"/>
+    <hyperlink ref="B293" r:id="rId192" xr:uid="{4E869A30-C033-43BD-A0DA-8E3CD8670827}"/>
+    <hyperlink ref="B294" r:id="rId193" xr:uid="{CBDC9F6D-6D25-40C5-88C1-5F1DE66FBBE9}"/>
+    <hyperlink ref="B296" r:id="rId194" xr:uid="{2F26A494-8E54-4A36-B4F2-FA3C69D76A9D}"/>
+    <hyperlink ref="J297" r:id="rId195" xr:uid="{096A7C7A-813A-4884-8FAF-A446AD102FA6}"/>
+    <hyperlink ref="B298" r:id="rId196" xr:uid="{5B5A57E4-46B8-4A4F-9C36-0615CA8217A4}"/>
+    <hyperlink ref="J299" r:id="rId197" xr:uid="{DE9014C7-2879-4487-8E61-93C678884EB4}"/>
+    <hyperlink ref="B300" r:id="rId198" xr:uid="{FAA1E669-D79B-47F9-A423-29DC459456EB}"/>
+    <hyperlink ref="J302" r:id="rId199" xr:uid="{A0BAC7B5-6C28-41E7-A2B3-AEC7A683DC47}"/>
+    <hyperlink ref="J304" r:id="rId200" xr:uid="{B1D0CE83-1FAD-4445-89A7-2DC12AC0FB49}"/>
+    <hyperlink ref="J305" r:id="rId201" xr:uid="{AAF9A93B-A8F1-49E3-98FF-54CA8D589691}"/>
+    <hyperlink ref="B306" r:id="rId202" xr:uid="{EF6D1BAE-EAFD-4295-B4DC-A48C4E97C6E7}"/>
+    <hyperlink ref="B307" r:id="rId203" xr:uid="{19624981-AAB1-4566-A079-ACBAD976885F}"/>
+    <hyperlink ref="J307" r:id="rId204" xr:uid="{82FE3467-5077-4029-A76D-65976807F9FB}"/>
+    <hyperlink ref="B308" r:id="rId205" xr:uid="{8467AE02-E07F-45BF-83A8-50C5246CEC7A}"/>
+    <hyperlink ref="J308" r:id="rId206" xr:uid="{BB524851-1136-4A45-A722-D97E4806CF41}"/>
+    <hyperlink ref="J309" r:id="rId207" xr:uid="{155D2EB5-FB3B-4647-B9A2-81AD789252B7}"/>
+    <hyperlink ref="J312" r:id="rId208" xr:uid="{BF82D2D7-F445-468E-BB31-D5AA22DB7B10}"/>
+    <hyperlink ref="J313" r:id="rId209" xr:uid="{33036867-DD2F-439D-8B3B-7929E51E0372}"/>
+    <hyperlink ref="B314" r:id="rId210" xr:uid="{1A9ECC1B-AED5-4F8C-8CA7-FEF965D47DA7}"/>
+    <hyperlink ref="J314" r:id="rId211" xr:uid="{32C5E0E2-81D8-46F9-95F5-024AFFCE6870}"/>
+    <hyperlink ref="J316" r:id="rId212" xr:uid="{7683FFB4-444E-49C0-B81C-62DD632BB7C2}"/>
+    <hyperlink ref="J317" r:id="rId213" xr:uid="{CA674382-188A-4CB4-A5A4-6CA4AC5EEF10}"/>
+    <hyperlink ref="B320" r:id="rId214" xr:uid="{8DC1724C-47FC-42FA-8A2B-B0F87D55C63F}"/>
+    <hyperlink ref="J320" r:id="rId215" xr:uid="{AA49FA04-750E-45D2-8CE5-C77432AA842C}"/>
+    <hyperlink ref="B324" r:id="rId216" xr:uid="{650305DF-4024-4C88-B5E1-FB4241877808}"/>
+    <hyperlink ref="J324" r:id="rId217" xr:uid="{C4283500-9B0E-4F8E-91FE-E46EE3E7B212}"/>
+    <hyperlink ref="B325" r:id="rId218" xr:uid="{8C352B65-440E-4EE3-8C2F-EDFB29FA4763}"/>
+    <hyperlink ref="B327" r:id="rId219" xr:uid="{14A1611F-46FA-4030-A2F2-A005A30EF604}"/>
+    <hyperlink ref="B328" r:id="rId220" xr:uid="{AC23C0A2-1B30-4729-942B-E43601BAE821}"/>
+    <hyperlink ref="J329" r:id="rId221" xr:uid="{97A5E83F-30E5-40BD-A407-49ECA55008B9}"/>
+    <hyperlink ref="B331" r:id="rId222" xr:uid="{55315E20-B763-43F1-8AD7-096F05F7B3D6}"/>
+    <hyperlink ref="J331" r:id="rId223" xr:uid="{86E4A33E-844B-4BD2-93E0-4E5BF34E8C95}"/>
+    <hyperlink ref="B337" r:id="rId224" xr:uid="{4B2ACB35-9E5C-473A-AA0E-67912E7E976A}"/>
+    <hyperlink ref="J337" r:id="rId225" xr:uid="{2E15281A-6174-4CB9-8F82-FFFC7D399400}"/>
+    <hyperlink ref="B339" r:id="rId226" xr:uid="{C9EDED0B-B2A6-41EE-9B44-40217669AED7}"/>
+    <hyperlink ref="J341" r:id="rId227" xr:uid="{C0977D05-0436-46D0-986A-5F3187F4C69E}"/>
+    <hyperlink ref="B344" r:id="rId228" xr:uid="{79C04F11-B2F4-49FF-B890-77D512E5FCA4}"/>
+    <hyperlink ref="B347" r:id="rId229" xr:uid="{EC7A9453-010A-4917-A429-5376C6007AD1}"/>
+    <hyperlink ref="J347" r:id="rId230" xr:uid="{524C144F-C50B-4D71-AEEE-5BB38F458019}"/>
+    <hyperlink ref="B349" r:id="rId231" xr:uid="{17EC44AE-C1BB-4CD1-98BD-0881A66303F7}"/>
+    <hyperlink ref="B350" r:id="rId232" xr:uid="{2024AF8C-4980-4385-91AB-D553439F2A92}"/>
+    <hyperlink ref="B351" r:id="rId233" xr:uid="{598D65F2-F394-46DC-98A4-BE050A41B43E}"/>
+    <hyperlink ref="B352" r:id="rId234" xr:uid="{DF8A5E88-5C2E-4B69-9140-85561CC8D3DF}"/>
+    <hyperlink ref="J352" r:id="rId235" xr:uid="{84A31E5A-F3F2-46CD-909A-4E086E36308A}"/>
+    <hyperlink ref="B355" r:id="rId236" xr:uid="{C7062DE0-1824-491D-9275-D7FCC860DD02}"/>
+    <hyperlink ref="B356" r:id="rId237" xr:uid="{D64B714E-2F33-41EC-AA28-0ECC5E22168B}"/>
+    <hyperlink ref="B358" r:id="rId238" xr:uid="{8072B7E0-73A3-4BAD-A835-E1D624579AFE}"/>
+    <hyperlink ref="J358" r:id="rId239" xr:uid="{91340B6E-65C6-4FE6-8C91-EC7D67A4F555}"/>
+    <hyperlink ref="B342" r:id="rId240" xr:uid="{EAADBE25-8BD5-F248-AC04-018ACA49F378}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId242"/>
+  <legacyDrawing r:id="rId241"/>
 </worksheet>
 </file>
 
@@ -15659,13 +15662,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1176</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1177</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -15678,7 +15681,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B3" t="s">
         <v>195</v>
@@ -15689,7 +15692,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -15700,18 +15703,18 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -15719,12 +15722,12 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -15735,12 +15738,12 @@
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -15762,7 +15765,7 @@
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>181</v>
@@ -15788,677 +15791,677 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
   </sheetData>
